--- a/documentacao/templates.xlsx
+++ b/documentacao/templates.xlsx
@@ -71,7 +71,7 @@
     <t>DealershipDetail</t>
   </si>
   <si>
-    <t>Make</t>
+    <t>Brand</t>
   </si>
   <si>
     <t>Model</t>
@@ -198,7 +198,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/documentacao/templates.xlsx
+++ b/documentacao/templates.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="203" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="101" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +129,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,8 +180,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +209,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -347,25 +358,25 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -554,25 +565,25 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
